--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.35/avg_0.004_scores.xlsx
@@ -100,12 +100,12 @@
     <t>safety</t>
   </si>
   <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
@@ -124,10 +124,10 @@
     <t>hand</t>
   </si>
   <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>community</t>
@@ -1135,25 +1135,25 @@
         <v>28</v>
       </c>
       <c r="K19">
-        <v>0.7577092511013216</v>
+        <v>0.7474747474747475</v>
       </c>
       <c r="L19">
-        <v>172</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>184</v>
+        <v>81</v>
       </c>
       <c r="N19">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="O19">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P19" t="b">
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>55</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1161,25 +1161,25 @@
         <v>29</v>
       </c>
       <c r="K20">
-        <v>0.7474747474747475</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L20">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="M20">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="N20">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1343,25 +1343,25 @@
         <v>36</v>
       </c>
       <c r="K27">
-        <v>0.6330275229357798</v>
+        <v>0.6215277777777778</v>
       </c>
       <c r="L27">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="M27">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1369,25 +1369,25 @@
         <v>37</v>
       </c>
       <c r="K28">
-        <v>0.6215277777777778</v>
+        <v>0.6088235294117647</v>
       </c>
       <c r="L28">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="M28">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="N28">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>109</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="10:17">
